--- a/biology/Botanique/Cytisus_balansae/Cytisus_balansae.xlsx
+++ b/biology/Botanique/Cytisus_balansae/Cytisus_balansae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cytisus balansae est une espèce de plante de la famille des Fabaceae et du genre Cytisus.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cytisus balansae est un arbuste d'une hauteur de moins d'un mètre généralement.
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cytisus balansae est présent au Maghreb[2] et dans le Sud de l'Espagne[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cytisus balansae est présent au Maghreb et dans le Sud de l'Espagne.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cytisus oromediterraneus est considéré, par certains botanistes, comme une sous-espèce ou une variété européenne de Cytisus balansae[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cytisus oromediterraneus est considéré, par certains botanistes, comme une sous-espèce ou une variété européenne de Cytisus balansae.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cytisus balansae a pour parasite Protopirapion atratulum et Attactagenus dispar. Le fruit a pour parasite Bruchidius lividimanus et Exapion fuscirostre. La feuille a pour parasite Heterogynis paradoxa (en), Mirificarma interrupta (en), Livilla genistae (sv). La racine a pour parasite Strophosoma erinaceus (pt), Charagmus intermedius (pt), Andrion regensteinense (de). La tige a pour parasite Phyllonorycter balansae (nl)[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cytisus balansae a pour parasite Protopirapion atratulum et Attactagenus dispar. Le fruit a pour parasite Bruchidius lividimanus et Exapion fuscirostre. La feuille a pour parasite Heterogynis paradoxa (en), Mirificarma interrupta (en), Livilla genistae (sv). La racine a pour parasite Strophosoma erinaceus (pt), Charagmus intermedius (pt), Andrion regensteinense (de). La tige a pour parasite Phyllonorycter balansae (nl).
 </t>
         </is>
       </c>
@@ -635,9 +655,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cytisus balansae sert au Maghreb à la construction de bergeries[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cytisus balansae sert au Maghreb à la construction de bergeries.
 </t>
         </is>
       </c>
